--- a/202411 v1.2  - Azure Backup Capability Matrix - Consumer.xlsx
+++ b/202411 v1.2  - Azure Backup Capability Matrix - Consumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur.sharepoint.com/teams/The600MClub/Shared Documents/TSP Community channel/Dora recovery for FSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur.sharepoint.com/teams/The600MClub/Shared Documents/TSP Community channel/Dora recovery for FSI/Git-repo-public/Azure-recovery-overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{8356C862-6F9E-45BF-BF09-EB8F508835BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4623E24B-63E5-47C4-B19D-A948E500BE43}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{8356C862-6F9E-45BF-BF09-EB8F508835BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F360D3-236C-42F2-B435-2AA08AAD524D}"/>
   <bookViews>
-    <workbookView xWindow="39015" yWindow="2820" windowWidth="23985" windowHeight="15255" tabRatio="371" activeTab="1" xr2:uid="{96F053D1-1B5A-42B7-9B27-D777C2A488D3}"/>
+    <workbookView xWindow="35880" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="371" activeTab="1" xr2:uid="{96F053D1-1B5A-42B7-9B27-D777C2A488D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="6" r:id="rId1"/>
@@ -1341,7 +1341,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1738,9 +1737,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
@@ -1752,15 +1748,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1770,8 +1757,20 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2855,12 +2854,12 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="23" max="23" width="3" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>156</v>
       </c>
@@ -2884,7 +2883,7 @@
       <c r="T1" s="16"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>189</v>
       </c>
@@ -2910,7 +2909,7 @@
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>188</v>
       </c>
@@ -2936,7 +2935,7 @@
       <c r="U3" s="50"/>
       <c r="V3" s="50"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>154</v>
       </c>
@@ -2962,7 +2961,7 @@
       <c r="U4" s="50"/>
       <c r="V4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>155</v>
       </c>
@@ -2988,7 +2987,7 @@
       <c r="U5" s="50"/>
       <c r="V5" s="50"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -3012,7 +3011,7 @@
       <c r="U6" s="50"/>
       <c r="V6" s="50"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>181</v>
       </c>
@@ -3038,7 +3037,7 @@
       <c r="U7" s="49"/>
       <c r="V7" s="49"/>
     </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
@@ -3066,7 +3065,7 @@
       <c r="U8" s="50"/>
       <c r="V8" s="50"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="50"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
@@ -3092,7 +3091,7 @@
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="50"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
@@ -3118,7 +3117,7 @@
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="50"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
@@ -3144,12 +3143,12 @@
       <c r="U11" s="50"/>
       <c r="V11" s="50"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="50"/>
-      <c r="C12" s="61">
+      <c r="C12" s="60">
         <v>45597</v>
       </c>
       <c r="D12" s="50"/>
@@ -3172,7 +3171,7 @@
       <c r="U12" s="50"/>
       <c r="V12" s="50"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>187</v>
       </c>
@@ -3200,7 +3199,7 @@
       <c r="U13" s="50"/>
       <c r="V13" s="50"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
@@ -3224,7 +3223,7 @@
       <c r="U14" s="50"/>
       <c r="V14" s="50"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
         <v>157</v>
       </c>
@@ -3250,7 +3249,7 @@
       <c r="U15" s="49"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
@@ -3273,13 +3272,13 @@
       <c r="U16" s="50"/>
       <c r="V16" s="50"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="50"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="36" t="b">
@@ -3303,13 +3302,13 @@
       <c r="U17" s="50"/>
       <c r="V17" s="50"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="50"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="37" t="s">
@@ -3333,13 +3332,13 @@
       <c r="U18" s="50"/>
       <c r="V18" s="50"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="50"/>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="38" t="s">
@@ -3363,13 +3362,13 @@
       <c r="U19" s="50"/>
       <c r="V19" s="50"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="50"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="39" t="s">
@@ -3393,7 +3392,7 @@
       <c r="U20" s="50"/>
       <c r="V20" s="50"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -3417,7 +3416,7 @@
       <c r="U21" s="50"/>
       <c r="V21" s="50"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -3441,7 +3440,7 @@
       <c r="U22" s="50"/>
       <c r="V22" s="50"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
@@ -3465,7 +3464,7 @@
       <c r="U23" s="50"/>
       <c r="V23" s="50"/>
     </row>
-    <row r="24" spans="1:22" ht="124.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="122" x14ac:dyDescent="0.35">
       <c r="B24" s="32" t="s">
         <v>198</v>
       </c>
@@ -3516,7 +3515,7 @@
       </c>
       <c r="R24" s="52"/>
     </row>
-    <row r="25" spans="1:22" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="252.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
         <v>159</v>
       </c>
@@ -3567,7 +3566,7 @@
       </c>
       <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -3591,7 +3590,7 @@
       <c r="U26" s="55"/>
       <c r="V26" s="56"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="50"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
@@ -3615,7 +3614,7 @@
       <c r="U27" s="50"/>
       <c r="V27" s="50"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="50"/>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -3639,7 +3638,7 @@
       <c r="U28" s="50"/>
       <c r="V28" s="50"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -3680,42 +3679,42 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3" customWidth="1"/>
-    <col min="11" max="13" width="9.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="3" customWidth="1"/>
+    <col min="11" max="13" width="9.54296875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" style="3" customWidth="1"/>
     <col min="21" max="21" width="9" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="8.81640625" style="3" customWidth="1"/>
     <col min="23" max="23" width="10" style="3" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="7.453125" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="16" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="78.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="136.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="110.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="132.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="78.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="136.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="110.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="132.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
@@ -3782,13 +3781,13 @@
       <c r="W1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="59" t="s">
+      <c r="X1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="Z1" s="59" t="s">
+      <c r="Z1" s="58" t="s">
         <v>196</v>
       </c>
       <c r="AA1" s="17" t="s">
@@ -3797,7 +3796,7 @@
       <c r="AB1"/>
       <c r="AC1"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B2" s="15">
         <v>1</v>
       </c>
@@ -3883,7 +3882,7 @@
       <c r="AB2"/>
       <c r="AC2"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B3" s="15">
         <v>2</v>
       </c>
@@ -3964,7 +3963,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -4040,7 +4039,7 @@
       <c r="AB4"/>
       <c r="AC4"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B5" s="15">
         <v>4</v>
       </c>
@@ -4118,7 +4117,7 @@
       <c r="AB5"/>
       <c r="AC5"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B6" s="15">
         <v>5</v>
       </c>
@@ -4196,7 +4195,7 @@
       <c r="AB6"/>
       <c r="AC6"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B7" s="15">
         <v>6</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="AB7"/>
       <c r="AC7"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <v>7</v>
       </c>
@@ -4367,7 +4366,7 @@
       <c r="AB8"/>
       <c r="AC8"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <v>8</v>
       </c>
@@ -4451,7 +4450,7 @@
       <c r="AB9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" s="15">
         <v>9</v>
       </c>
@@ -4539,7 +4538,7 @@
       <c r="AB10"/>
       <c r="AC10"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <v>10</v>
       </c>
@@ -4625,7 +4624,7 @@
       <c r="AB11"/>
       <c r="AC11"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
         <v>11</v>
       </c>
@@ -4713,7 +4712,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
         <v>12</v>
       </c>
@@ -4801,7 +4800,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14" s="15">
         <v>13</v>
       </c>
@@ -4889,7 +4888,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B15" s="15">
         <v>14</v>
       </c>
@@ -4977,7 +4976,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B16" s="15">
         <v>15</v>
       </c>
@@ -5062,7 +5061,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B17" s="15">
         <v>16</v>
       </c>
@@ -5147,7 +5146,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B18" s="15">
         <v>17</v>
       </c>
@@ -5230,7 +5229,7 @@
       <c r="AB18"/>
       <c r="AC18"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B19" s="15">
         <v>18</v>
       </c>
@@ -5305,13 +5304,13 @@
       <c r="Y19" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" s="58" t="s">
+      <c r="AA19" s="57" t="s">
         <v>57</v>
       </c>
       <c r="AB19"/>
       <c r="AC19"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B20" s="15">
         <v>19</v>
       </c>
@@ -5399,7 +5398,7 @@
       <c r="AB20"/>
       <c r="AC20"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B21" s="15">
         <v>20</v>
       </c>
@@ -5482,7 +5481,7 @@
       <c r="AB21"/>
       <c r="AC21"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" s="15">
         <v>21</v>
       </c>
@@ -5568,7 +5567,7 @@
       <c r="AB22"/>
       <c r="AC22"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B23" s="15">
         <v>22</v>
       </c>
@@ -5652,7 +5651,7 @@
       <c r="AB23"/>
       <c r="AC23"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" s="15">
         <v>23</v>
       </c>
@@ -5735,7 +5734,7 @@
       <c r="AB24"/>
       <c r="AC24"/>
     </row>
-    <row r="25" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="15">
         <v>24</v>
       </c>
@@ -5816,7 +5815,7 @@
       <c r="AB25"/>
       <c r="AC25"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B26" s="15">
         <v>25</v>
       </c>
@@ -5896,7 +5895,7 @@
       <c r="AB26"/>
       <c r="AC26"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B27" s="15">
         <v>26</v>
       </c>
@@ -5977,7 +5976,7 @@
       <c r="AB27"/>
       <c r="AC27"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B28" s="15">
         <v>27</v>
       </c>
@@ -6042,10 +6041,10 @@
       <c r="U28" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="V28" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="W28" s="57" t="b">
+      <c r="V28" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" s="12" t="b">
         <v>1</v>
       </c>
       <c r="X28" s="12"/>
@@ -6058,7 +6057,7 @@
       <c r="AB28"/>
       <c r="AC28"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B29" s="15">
         <v>28</v>
       </c>
@@ -6144,7 +6143,7 @@
       <c r="AB29"/>
       <c r="AC29"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B30" s="15">
         <v>29</v>
       </c>
@@ -6230,7 +6229,7 @@
       <c r="AB30"/>
       <c r="AC30"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B31" s="15">
         <v>30</v>
       </c>
@@ -6316,7 +6315,7 @@
       <c r="AB31"/>
       <c r="AC31"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B32" s="15">
         <v>31</v>
       </c>
@@ -6404,7 +6403,7 @@
       <c r="AB32"/>
       <c r="AC32"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B33" s="15">
         <v>32</v>
       </c>
@@ -6472,7 +6471,7 @@
       <c r="V33" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="W33" s="26" t="b">
+      <c r="W33" s="69" t="b">
         <v>0</v>
       </c>
       <c r="X33" s="26" t="s">
@@ -6487,7 +6486,7 @@
       <c r="AB33"/>
       <c r="AC33"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B34" s="15">
         <v>33</v>
       </c>
@@ -6555,7 +6554,7 @@
       <c r="V34" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="W34" s="26" t="b">
+      <c r="W34" s="69" t="b">
         <v>0</v>
       </c>
       <c r="X34" s="26" t="s">
@@ -6570,7 +6569,7 @@
       <c r="AB34"/>
       <c r="AC34"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B35" s="15">
         <v>34</v>
       </c>
@@ -6636,7 +6635,7 @@
       <c r="V35" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="W35" s="26" t="b">
+      <c r="W35" s="69" t="b">
         <v>0</v>
       </c>
       <c r="X35" s="26" t="s">
@@ -6649,7 +6648,7 @@
       <c r="AB35"/>
       <c r="AC35"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B36" s="15">
         <v>35</v>
       </c>
@@ -6730,7 +6729,7 @@
       <c r="AB36"/>
       <c r="AC36"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B37" s="15">
         <v>36</v>
       </c>
@@ -6813,7 +6812,7 @@
       <c r="AB37"/>
       <c r="AC37"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B38" s="15">
         <v>37</v>
       </c>
@@ -6896,7 +6895,7 @@
       <c r="AB38"/>
       <c r="AC38"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B39" s="15">
         <v>38</v>
       </c>
@@ -6977,7 +6976,7 @@
       <c r="AB39"/>
       <c r="AC39"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B40" s="15">
         <v>39</v>
       </c>
@@ -7061,7 +7060,7 @@
       <c r="AB40"/>
       <c r="AC40"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B41" s="15">
         <v>40</v>
       </c>
@@ -7125,10 +7124,10 @@
       <c r="U41" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="V41" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="W41" s="57" t="b">
+      <c r="V41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" s="12" t="b">
         <v>1</v>
       </c>
       <c r="X41" s="12"/>
@@ -7139,7 +7138,7 @@
       <c r="AB41"/>
       <c r="AC41"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B42" s="15">
         <v>41</v>
       </c>
@@ -7203,10 +7202,10 @@
       <c r="U42" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="V42" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="W42" s="57" t="b">
+      <c r="V42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" s="12" t="b">
         <v>1</v>
       </c>
       <c r="X42" s="12"/>
@@ -7217,7 +7216,7 @@
       <c r="AB42"/>
       <c r="AC42"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B43" s="15">
         <v>42</v>
       </c>
@@ -7303,7 +7302,7 @@
       <c r="AB43"/>
       <c r="AC43"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B44" s="15">
         <v>43</v>
       </c>
@@ -7384,7 +7383,7 @@
       <c r="AB44"/>
       <c r="AC44"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B45" s="15">
         <v>44</v>
       </c>
@@ -7466,7 +7465,7 @@
       <c r="AB45"/>
       <c r="AC45"/>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B46" s="15">
         <v>45</v>
       </c>
@@ -7533,7 +7532,7 @@
       <c r="V46" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="W46" s="26" t="b">
+      <c r="W46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="X46" s="26" t="s">
@@ -7546,7 +7545,7 @@
       <c r="AB46"/>
       <c r="AC46"/>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B47" s="15">
         <v>46</v>
       </c>
@@ -7634,7 +7633,7 @@
       <c r="AB47"/>
       <c r="AC47"/>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B48" s="15">
         <v>47</v>
       </c>
@@ -7720,7 +7719,7 @@
       <c r="AB48"/>
       <c r="AC48"/>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B49" s="15">
         <v>48</v>
       </c>
@@ -7807,7 +7806,7 @@
       <c r="AB49"/>
       <c r="AC49"/>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B50" s="15">
         <v>49</v>
       </c>
@@ -7893,7 +7892,7 @@
       <c r="AB50"/>
       <c r="AC50"/>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B51" s="15">
         <v>50</v>
       </c>
@@ -7979,7 +7978,7 @@
       <c r="AB51"/>
       <c r="AC51"/>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B52" s="15">
         <v>51</v>
       </c>
@@ -8066,7 +8065,7 @@
       <c r="AB52"/>
       <c r="AC52"/>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B53" s="15">
         <v>52</v>
       </c>
@@ -8147,7 +8146,7 @@
       <c r="AB53"/>
       <c r="AC53"/>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B54" s="15">
         <v>53</v>
       </c>
@@ -8233,7 +8232,7 @@
       <c r="AB54"/>
       <c r="AC54"/>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B55" s="15">
         <v>54</v>
       </c>
@@ -8314,7 +8313,7 @@
       <c r="AB55"/>
       <c r="AC55"/>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B56" s="15">
         <v>55</v>
       </c>
@@ -8395,7 +8394,7 @@
       <c r="AB56"/>
       <c r="AC56"/>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B57" s="15">
         <v>56</v>
       </c>
@@ -8481,7 +8480,7 @@
       <c r="AB57"/>
       <c r="AC57"/>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B58" s="15">
         <v>57</v>
       </c>
@@ -8567,7 +8566,7 @@
       <c r="AB58"/>
       <c r="AC58"/>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B59" s="15">
         <v>58</v>
       </c>
@@ -8653,7 +8652,7 @@
       <c r="AB59"/>
       <c r="AC59"/>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B60" s="15">
         <v>59</v>
       </c>
@@ -8736,7 +8735,7 @@
       <c r="AB60"/>
       <c r="AC60"/>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B61" s="15">
         <v>60</v>
       </c>
@@ -8821,7 +8820,7 @@
       <c r="AB61"/>
       <c r="AC61"/>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B62" s="15">
         <v>61</v>
       </c>
@@ -8898,7 +8897,7 @@
       <c r="AB62"/>
       <c r="AC62"/>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B63" s="15">
         <v>62</v>
       </c>
@@ -8984,7 +8983,7 @@
       <c r="AB63"/>
       <c r="AC63"/>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B64" s="15">
         <v>63</v>
       </c>
@@ -9068,7 +9067,7 @@
       <c r="AB64"/>
       <c r="AC64"/>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B65" s="15">
         <v>64</v>
       </c>
@@ -9154,7 +9153,7 @@
       <c r="AB65"/>
       <c r="AC65"/>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B66" s="15">
         <v>65</v>
       </c>
@@ -9238,7 +9237,7 @@
       <c r="AB66"/>
       <c r="AC66"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B67" s="15">
         <v>66</v>
       </c>
@@ -9320,7 +9319,7 @@
       <c r="AB67"/>
       <c r="AC67"/>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B68" s="15">
         <v>67</v>
       </c>
@@ -9400,7 +9399,7 @@
       <c r="AB68"/>
       <c r="AC68"/>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B69" s="15">
         <v>68</v>
       </c>
@@ -9481,7 +9480,7 @@
       <c r="AB69"/>
       <c r="AC69"/>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B70" s="15">
         <v>69</v>
       </c>
@@ -9562,7 +9561,7 @@
       <c r="AB70"/>
       <c r="AC70"/>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B71" s="15">
         <v>70</v>
       </c>
@@ -9642,7 +9641,7 @@
       <c r="AB71"/>
       <c r="AC71"/>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B72" s="15">
         <v>71</v>
       </c>
@@ -9722,7 +9721,7 @@
       <c r="AB72"/>
       <c r="AC72"/>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B73" s="15">
         <v>72</v>
       </c>
@@ -9802,7 +9801,7 @@
       <c r="AB73"/>
       <c r="AC73"/>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B74" s="15">
         <v>73</v>
       </c>
@@ -9882,7 +9881,7 @@
       <c r="AB74"/>
       <c r="AC74"/>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B75" s="15">
         <v>74</v>
       </c>
@@ -9962,7 +9961,7 @@
       <c r="AB75"/>
       <c r="AC75"/>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B76" s="15">
         <v>75</v>
       </c>
@@ -10042,7 +10041,7 @@
       <c r="AB76"/>
       <c r="AC76"/>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B77" s="15">
         <v>76</v>
       </c>
@@ -10122,7 +10121,7 @@
       <c r="AB77"/>
       <c r="AC77"/>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B78" s="15">
         <v>77</v>
       </c>
@@ -10202,7 +10201,7 @@
       <c r="AB78"/>
       <c r="AC78"/>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B79" s="15">
         <v>78</v>
       </c>
@@ -10283,7 +10282,7 @@
       <c r="AB79"/>
       <c r="AC79"/>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B80" s="15">
         <v>79</v>
       </c>
@@ -10362,7 +10361,7 @@
       <c r="AB80"/>
       <c r="AC80"/>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B81" s="15">
         <v>80</v>
       </c>
@@ -10443,7 +10442,7 @@
       <c r="AB81"/>
       <c r="AC81"/>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B82" s="15">
         <v>81</v>
       </c>
@@ -10524,7 +10523,7 @@
       <c r="AB82"/>
       <c r="AC82"/>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B83" s="15">
         <v>82</v>
       </c>
@@ -10604,7 +10603,7 @@
       <c r="AB83"/>
       <c r="AC83"/>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B84" s="15">
         <v>83</v>
       </c>
@@ -10671,7 +10670,7 @@
       <c r="V84" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="W84" s="26" t="b">
+      <c r="W84" s="69" t="b">
         <v>0</v>
       </c>
       <c r="X84" s="26" t="s">
@@ -10686,7 +10685,7 @@
       <c r="AB84" s="6"/>
       <c r="AC84" s="18"/>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="9"/>
       <c r="D85" s="2"/>
@@ -10712,7 +10711,7 @@
       <c r="AB85" s="18"/>
       <c r="AC85" s="4"/>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="9"/>
       <c r="D86" s="2"/>
@@ -10738,7 +10737,7 @@
       <c r="AB86" s="18"/>
       <c r="AC86" s="4"/>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="8"/>
       <c r="D87" s="2"/>
@@ -10764,7 +10763,7 @@
       <c r="AB87" s="18"/>
       <c r="AC87" s="4"/>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="9"/>
       <c r="D88" s="2"/>
@@ -10903,15 +10902,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071CD555A59356F49807DE4FB8ABAE574" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23fec2fdd1b8badbddbc3481be292fd0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5d5c8ee9-cc12-4fd0-ac22-d6b253ae8eb1" xmlns:ns3="40cfeb6b-0141-411a-86df-95ae0e5b394c" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8c61ece013bc9e67e59a8feeacb92" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11168,6 +11158,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11191,14 +11190,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C1C65C-B01E-4397-89D4-AA5D6263CD8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41CF619C-AACF-48F1-A5E2-1E2FF4DEE8D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11215,6 +11206,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C1C65C-B01E-4397-89D4-AA5D6263CD8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
